--- a/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="cppchecker_20210616_v1.1.0" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="106">
   <si>
     <t>File</t>
   </si>
   <si>
-    <t>how to fix</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Line</t>
   </si>
   <si>
@@ -47,39 +44,12 @@
     <t>style</t>
   </si>
   <si>
-    <t>variableScope</t>
-  </si>
-  <si>
-    <t>unreadVariable</t>
-  </si>
-  <si>
     <t>unusedFunction</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>uninitMemberVar</t>
-  </si>
-  <si>
-    <t>Member variable 'baseEngine::context' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>noExplicitConstructor</t>
-  </si>
-  <si>
-    <t>Class 'Rnet' has a constructor with 1 argument that is not explicit.</t>
-  </si>
-  <si>
-    <t>missingOverride</t>
-  </si>
-  <si>
-    <t>The function 'init' overrides a function in a base class but is not marked with a 'override' specifier.</t>
-  </si>
-  <si>
-    <t>Class 'Onet' has a constructor with 1 argument that is not explicit.</t>
-  </si>
-  <si>
     <t>noCopyConstructor</t>
   </si>
   <si>
@@ -92,69 +62,15 @@
     <t>Class 'mtcnn' does not have a operator= which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
-    <t>Variable 'first_time' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'second_time' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'third_time' is assigned a value that is never used.</t>
-  </si>
-  <si>
     <t>performance</t>
   </si>
   <si>
-    <t>postfixOperator</t>
-  </si>
-  <si>
-    <t>Prefer prefix ++/-- operators for non-primitive types.</t>
-  </si>
-  <si>
-    <t>The scope of the variable 'order' can be reduced.</t>
-  </si>
-  <si>
-    <t>Variable 'order' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'bbw' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'bbh' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'maxSide' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'h' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'w' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'x1' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'y1' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'x2' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>Variable 'y2' is assigned a value that is never used.</t>
-  </si>
-  <si>
     <t>Class 'Onet' does not have a copy constructor which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
     <t>Class 'Onet' does not have a operator= which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
-    <t>constParameter</t>
-  </si>
-  <si>
-    <t>Parameter 'image' can be declared with const</t>
-  </si>
-  <si>
     <t>Class 'Pnet' does not have a copy constructor which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
@@ -167,69 +83,18 @@
     <t>Class 'Rnet' does not have a operator= which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
-    <t>The scope of the variable 'entry' can be reduced.</t>
-  </si>
-  <si>
     <t>The function 'calculateBindingBufferSizes' is never used.</t>
   </si>
   <si>
     <t>The function 'safeCudaMalloc' is never used.</t>
   </si>
   <si>
-    <t>Member variable 'FaceNetClassifier::m_output' is not initialized in the constructor.</t>
-  </si>
-  <si>
     <t>useInitializationList</t>
   </si>
   <si>
-    <t>Variable 'm_gLogger' is assigned in constructor body. Consider performing initialization in initialization list.</t>
-  </si>
-  <si>
-    <t>Variable 'm_dtype' is assigned in constructor body. Consider performing initialization in initialization list.</t>
-  </si>
-  <si>
-    <t>Variable 'm_uffFile' is assigned in constructor body. Consider performing initialization in initialization list.</t>
-  </si>
-  <si>
-    <t>Variable 'm_engineFile' is assigned in constructor body. Consider performing initialization in initialization list.</t>
-  </si>
-  <si>
-    <t>The scope of the variable 'currDistance' can be reduced.</t>
-  </si>
-  <si>
-    <t>unusedLabel</t>
-  </si>
-  <si>
-    <t>Label 'std' is not used.</t>
-  </si>
-  <si>
-    <t>passedByValue</t>
-  </si>
-  <si>
-    <t>Function parameter 'uffFile' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>Function parameter 'engineFile' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>Function parameter 'outputBbox' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>Function parameter 'className' should be passed by const reference.</t>
-  </si>
-  <si>
     <t>The function 'elementSize' is never used.</t>
   </si>
   <si>
-    <t>Member variable 'VideoStreamer::m_videoWidth' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'VideoStreamer::m_videoHeight' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'VideoStreamer::m_frameRate' is not initialized in the constructor.</t>
-  </si>
-  <si>
     <t>Class 'VideoStreamer' does not have a copy constructor which is recommended since it has dynamic memory/resource allocation(s).</t>
   </si>
   <si>
@@ -245,24 +110,6 @@
     <t>The function 'setResolutionDevice' is never used.</t>
   </si>
   <si>
-    <t>Member variable 'L2NormHelper::C' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'L2NormHelper::H' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'L2NormHelper::W' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'L2NormHelper::mPluginNamespace' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'L2NormHelperPluginCreator::mOpType' is not initialized in the constructor.</t>
-  </si>
-  <si>
-    <t>Member variable 'L2NormHelperPluginCreator::mEps' is not initialized in the constructor.</t>
-  </si>
-  <si>
     <t>The function 'clone' is never used.</t>
   </si>
   <si>
@@ -308,18 +155,6 @@
     <t>The function 'terminate' is never used.</t>
   </si>
   <si>
-    <t>portability</t>
-  </si>
-  <si>
-    <t>invalidPointerCast</t>
-  </si>
-  <si>
-    <t>Casting between const char * &amp; and const float * which have an incompatible binary data representation.</t>
-  </si>
-  <si>
-    <t>The scope of the variable 'retvalue' can be reduced.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Does not check for buffer overflows when copying to destination (CWE-120).</t>
   </si>
   <si>
@@ -342,237 +177,182 @@
   </si>
   <si>
     <t xml:space="preserve">  (CWE-120, CWE-20).</t>
+  </si>
+  <si>
+    <t>knownConditionTrueFalse</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\common.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\faceNet.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\main.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\mtcnn.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\onet_rt.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\pnet_rt.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\rnet_rt.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\src\videoStreamer.cpp</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\server\trt_l2norm_helper\l2norm_helper.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Does not handle strings that are not \0-terminated; if given one it may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform an over-read (it could cause a crash if unprotected) (CWE-126).</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:100:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/openssl_hostname_validation.cpp:59:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:29:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:30:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:31:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:32:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>issue#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot to fix</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">closed </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오검출</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>temp\cmu_project\source\client\src\app.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\common\NetworkTCP.cpp</t>
-  </si>
-  <si>
-    <t>The scope of the variable 'line' can be reduced.</t>
-  </si>
-  <si>
-    <t>constStatement</t>
-  </si>
-  <si>
-    <t>Unused variable value 'TcpListenPort'</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\common\TcpSendRecvJpeg.cpp</t>
-  </si>
-  <si>
-    <t>Function parameter 'meta' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>The function 'TcpRecvLoginData' is never used.</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\custom\two-way-ssl-c\server.c</t>
-  </si>
-  <si>
-    <t>knownConditionTrueFalse</t>
-  </si>
-  <si>
-    <t>Condition 'do_work!=0' is always true</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\baseEngine.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\common.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\faceNet.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\rnet_rt.h</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\onet_rt.h</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\pnet_rt.h</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\faceNet.h</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\main.cpp</t>
-  </si>
-  <si>
-    <t>Function parameter 'userid' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>Function parameter 'userpw' should be passed by const reference.</t>
-  </si>
-  <si>
-    <t>Variable 'TcpConnectedPort_meta' is assigned a value that is never used.</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\mtcnn.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\network.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\onet_rt.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\pnet_rt.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\rnet_rt.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\src\videoStreamer.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\trt_l2norm_helper\l2norm_helper.cpp</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\server\trt_l2norm_helper\l2norm_helper.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Does not handle strings that are not \0-terminated; if given one it may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform an over-read (it could cause a crash if unprotected) (CWE-126).</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:100:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/openssl_hostname_validation.cpp:59:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:29:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:30:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:31:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:32:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>issue#</t>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:129:  [2] (buffer) memcpy:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:466:  [2] (buffer) memcpy:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/baseEngine.cpp:111:  [2] (misc) open:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/faceNet.cpp:122:  [2] (misc) open:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/mtcnn.cpp:129:  [2] (buffer) memcpy:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/mtcnn.cpp:163:  [2] (buffer) memcpy:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/pnet_rt.cpp:25:  [2] (misc) open:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/pnet_rt.cpp:49:  [2] (misc) open:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:99:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:443:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/openssl_hostname_validation.cpp:111:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/baseEngine.cpp:62:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/faceNet.cpp:47:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/faceNet.cpp:311:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/main.cpp:45:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/main.cpp:120:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/main.cpp:121:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/main.cpp:127:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/src/main.cpp:128:  [1] (buffer) strlen:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:33:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:34:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.h:127:  [1] (buffer) read:</t>
+  </si>
+  <si>
+    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:124:  [2] (buffer) memcpy:</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>동일</t>
+    <t>close</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>hot to fix</t>
+    <t>be careful</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>전체</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">closed </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>오검출</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">closed </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:124:  [2] (buffer) memcpy:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:129:  [2] (buffer) memcpy:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:466:  [2] (buffer) memcpy:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/baseEngine.cpp:111:  [2] (misc) open:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/faceNet.cpp:122:  [2] (misc) open:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/mtcnn.cpp:129:  [2] (buffer) memcpy:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/mtcnn.cpp:163:  [2] (buffer) memcpy:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/pnet_rt.cpp:25:  [2] (misc) open:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/pnet_rt.cpp:49:  [2] (misc) open:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:99:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/TcpSendRecvJpeg.cpp:443:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/common/openssl_hostname_validation.cpp:111:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/baseEngine.cpp:62:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/faceNet.cpp:47:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/faceNet.cpp:311:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/main.cpp:45:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/main.cpp:120:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/main.cpp:121:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/main.cpp:127:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/src/main.cpp:128:  [1] (buffer) strlen:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:33:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.cpp:34:  [1] (buffer) read:</t>
-  </si>
-  <si>
-    <t>../cmu_project/source/server/trt_l2norm_helper/l2norm_helper.h:127:  [1] (buffer) read:</t>
+    <t>Condition 'argc==3' is always false</t>
+  </si>
+  <si>
+    <t>Variable 'op_type' is assigned in constructor body. Consider performing initialization in initialization list.</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\common\Logger.cpp</t>
+  </si>
+  <si>
+    <t>The function 'log_hexdump' is never used.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,12 +700,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1171,11 +945,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,9 +1034,6 @@
               <c:f>'cppchecker_20210616_v1.1.0'!$F$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>number</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1625,63 +1393,17 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'cppchecker_20210616_v1.1.0'!$E$109:$E$123</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>constParameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>invalidPointerCast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>knownConditionTrueFalse</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>missingOverride</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>noCopyConstructor</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>noExplicitConstructor</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>noOperatorEq</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>passedByValue</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>postfixOperator</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>uninitMemberVar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>unreadVariable</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>unusedFunction</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>unusedLabel</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>useInitializationList</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>variableScope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1689,51 +1411,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1760,7 +1437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2707,1912 +2383,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="70.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2">
-        <v>109</v>
+      <c r="D2" t="s">
+        <v>51</v>
       </c>
       <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>214</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
         <v>59</v>
       </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6">
-        <v>144</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
-        <v>213</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <v>216</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
-        <v>182</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
-        <v>183</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
-        <v>259</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
-        <v>109</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
-        <v>300</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35">
-        <v>42</v>
-      </c>
       <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38">
-        <v>192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42">
-        <v>141</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43">
-        <v>147</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46">
-        <v>117</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47">
-        <v>148</v>
-      </c>
-      <c r="E47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49">
-        <v>34</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50">
-        <v>84</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51">
-        <v>84</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52">
-        <v>84</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53">
-        <v>85</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54">
-        <v>85</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56">
-        <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58">
-        <v>86</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59">
-        <v>66</v>
-      </c>
-      <c r="E59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60">
-        <v>87</v>
-      </c>
-      <c r="E60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61">
-        <v>36</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63">
-        <v>89</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64">
-        <v>57</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65">
-        <v>57</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67">
-        <v>37</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68">
-        <v>37</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69">
-        <v>77</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71">
-        <v>31</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72">
-        <v>31</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74">
-        <v>32</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75">
-        <v>55</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76">
-        <v>47</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78">
-        <v>19</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82">
-        <v>21</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84">
-        <v>144</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85">
-        <v>144</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86">
-        <v>133</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87">
-        <v>99</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88">
-        <v>178</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89">
-        <v>200</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90">
-        <v>173</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91">
-        <v>36</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92">
-        <v>42</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93">
-        <v>153</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94">
-        <v>168</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95">
-        <v>117</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96">
-        <v>158</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97">
-        <v>57</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99">
-        <v>81</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100">
-        <v>55</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>136</v>
-      </c>
-      <c r="D101">
-        <v>128</v>
-      </c>
-      <c r="E101" t="s">
-        <v>94</v>
-      </c>
-      <c r="F101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
-        <v>148</v>
-      </c>
-      <c r="F104" t="s">
-        <v>149</v>
-      </c>
-      <c r="G104" t="s">
-        <v>153</v>
-      </c>
-      <c r="H104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E105">
-        <v>100</v>
-      </c>
-      <c r="F105">
-        <v>100</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E108" t="s">
-        <v>154</v>
-      </c>
-      <c r="F108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E109" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109">
-        <f>COUNTIF(F2:F101,E109)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E110" t="s">
-        <v>95</v>
-      </c>
-      <c r="F110">
-        <f t="shared" ref="F110:F123" si="0">COUNTIF(F3:F102,E110)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E111" t="s">
-        <v>116</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E115" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E116" t="s">
-        <v>59</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E117" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E122" t="s">
-        <v>51</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4628,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4644,34 +3021,40 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,17 +3062,17 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,17 +3080,17 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4715,27 +3098,27 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -4743,27 +3126,27 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -4771,17 +3154,17 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -4789,17 +3172,17 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -4807,27 +3190,27 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -4835,27 +3218,27 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -4863,17 +3246,17 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -4881,17 +3264,17 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -4899,17 +3282,17 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
@@ -4917,17 +3300,17 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -4935,17 +3318,17 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
@@ -4953,17 +3336,17 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -4971,17 +3354,17 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
@@ -4989,17 +3372,17 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
@@ -5007,17 +3390,17 @@
         <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
@@ -5025,17 +3408,17 @@
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
@@ -5043,17 +3426,17 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
@@ -5061,17 +3444,17 @@
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
@@ -5079,17 +3462,17 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
@@ -5097,17 +3480,17 @@
         <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
@@ -5115,17 +3498,17 @@
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
@@ -5133,17 +3516,17 @@
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
@@ -5151,17 +3534,17 @@
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
@@ -5169,17 +3552,17 @@
         <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F95" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
@@ -5187,17 +3570,17 @@
         <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
@@ -5205,17 +3588,17 @@
         <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F101" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
@@ -5223,31 +3606,31 @@
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="I112" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.3">

--- a/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cppchecker_20210616_v1.1.0" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cppchecker_20210616_v1.1.0'!$C$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flawfinder_20210616_v1.1.0!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flawfinder_20210616_v1.1.0!$D$4:$E$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="113">
   <si>
     <t>File</t>
   </si>
@@ -335,24 +335,52 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>be careful</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition 'argc==3' is always false</t>
+  </si>
+  <si>
+    <t>Variable 'op_type' is assigned in constructor body. Consider performing initialization in initialization list.</t>
+  </si>
+  <si>
+    <t>temp\cmu_project\source\common\Logger.cpp</t>
+  </si>
+  <si>
+    <t>The function 'log_hexdump' is never used.</t>
+  </si>
+  <si>
     <t>close</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>be careful</t>
+    <t>fix</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Condition 'argc==3' is always false</t>
-  </si>
-  <si>
-    <t>Variable 'op_type' is assigned in constructor body. Consider performing initialization in initialization list.</t>
-  </si>
-  <si>
-    <t>temp\cmu_project\source\common\Logger.cpp</t>
-  </si>
-  <si>
-    <t>The function 'log_hexdump' is never used.</t>
+    <t>close</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>add exception</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>add exception</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>check strlen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2385,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2428,7 +2456,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,7 +2694,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2977,7 +3005,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>124</v>
@@ -2989,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3003,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I113"/>
+  <dimension ref="A4:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3037,11 +3065,11 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
       </c>
       <c r="F7" t="s">
         <v>99</v>
@@ -3061,6 +3089,12 @@
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" t="s">
         <v>77</v>
       </c>
@@ -3079,6 +3113,12 @@
       <c r="B13">
         <v>3</v>
       </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
       <c r="F13" t="s">
         <v>78</v>
       </c>
@@ -3097,6 +3137,12 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
       <c r="F16" t="s">
         <v>79</v>
       </c>
@@ -3125,6 +3171,12 @@
       <c r="B21">
         <v>5</v>
       </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
       <c r="F21" t="s">
         <v>80</v>
       </c>
@@ -3153,6 +3205,12 @@
       <c r="B26">
         <v>6</v>
       </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
       <c r="F26" t="s">
         <v>81</v>
       </c>
@@ -3171,6 +3229,12 @@
       <c r="B29">
         <v>7</v>
       </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" t="s">
         <v>82</v>
       </c>
@@ -3189,6 +3253,12 @@
       <c r="B32">
         <v>8</v>
       </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
       <c r="F32" t="s">
         <v>83</v>
       </c>
@@ -3217,6 +3287,12 @@
       <c r="B37">
         <v>9</v>
       </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
       <c r="F37" t="s">
         <v>84</v>
       </c>
@@ -3245,6 +3321,12 @@
       <c r="B42">
         <v>10</v>
       </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
       <c r="F42" t="s">
         <v>85</v>
       </c>
@@ -3263,6 +3345,12 @@
       <c r="B45">
         <v>11</v>
       </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
       <c r="F45" t="s">
         <v>63</v>
       </c>
@@ -3281,6 +3369,12 @@
       <c r="B48">
         <v>12</v>
       </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -3299,6 +3393,12 @@
       <c r="B51">
         <v>13</v>
       </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
       <c r="F51" t="s">
         <v>64</v>
       </c>
@@ -3317,6 +3417,12 @@
       <c r="B54">
         <v>14</v>
       </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
       <c r="F54" t="s">
         <v>87</v>
       </c>
@@ -3335,6 +3441,12 @@
       <c r="B57">
         <v>15</v>
       </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
       <c r="F57" t="s">
         <v>88</v>
       </c>
@@ -3353,6 +3465,12 @@
       <c r="B60">
         <v>16</v>
       </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>111</v>
+      </c>
       <c r="F60" t="s">
         <v>89</v>
       </c>
@@ -3371,6 +3489,12 @@
       <c r="B63">
         <v>17</v>
       </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
       <c r="F63" t="s">
         <v>90</v>
       </c>
@@ -3389,6 +3513,12 @@
       <c r="B66">
         <v>18</v>
       </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
       <c r="F66" t="s">
         <v>90</v>
       </c>
@@ -3407,6 +3537,12 @@
       <c r="B69">
         <v>19</v>
       </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
       <c r="F69" t="s">
         <v>91</v>
       </c>
@@ -3425,6 +3561,12 @@
       <c r="B72">
         <v>20</v>
       </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>110</v>
+      </c>
       <c r="F72" t="s">
         <v>92</v>
       </c>
@@ -3443,6 +3585,12 @@
       <c r="B75">
         <v>21</v>
       </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
       <c r="F75" t="s">
         <v>93</v>
       </c>
@@ -3461,6 +3609,12 @@
       <c r="B78">
         <v>22</v>
       </c>
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" t="s">
+        <v>112</v>
+      </c>
       <c r="F78" t="s">
         <v>94</v>
       </c>
@@ -3479,6 +3633,12 @@
       <c r="B81">
         <v>23</v>
       </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" t="s">
+        <v>112</v>
+      </c>
       <c r="F81" t="s">
         <v>95</v>
       </c>
@@ -3497,6 +3657,12 @@
       <c r="B84">
         <v>24</v>
       </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
       <c r="F84" t="s">
         <v>65</v>
       </c>
@@ -3515,6 +3681,12 @@
       <c r="B87">
         <v>25</v>
       </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
       <c r="F87" t="s">
         <v>66</v>
       </c>
@@ -3533,6 +3705,12 @@
       <c r="B90">
         <v>26</v>
       </c>
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
       <c r="F90" t="s">
         <v>67</v>
       </c>
@@ -3551,6 +3729,12 @@
       <c r="B93">
         <v>27</v>
       </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" t="s">
+        <v>108</v>
+      </c>
       <c r="F93" t="s">
         <v>68</v>
       </c>
@@ -3569,6 +3753,12 @@
       <c r="B96">
         <v>28</v>
       </c>
+      <c r="D96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
       <c r="F96" t="s">
         <v>96</v>
       </c>
@@ -3587,6 +3777,12 @@
       <c r="B99">
         <v>29</v>
       </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" t="s">
+        <v>108</v>
+      </c>
       <c r="F99" t="s">
         <v>97</v>
       </c>
@@ -3605,6 +3801,12 @@
       <c r="B102">
         <v>30</v>
       </c>
+      <c r="D102" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" t="s">
+        <v>108</v>
+      </c>
       <c r="F102" t="s">
         <v>98</v>
       </c>
@@ -3619,26 +3821,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F112" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
         <v>72</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G108" t="s">
         <v>73</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H108" t="s">
         <v>74</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F113">
-        <v>36</v>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D4:E109"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210616_v1.1.0_reviewed.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="cppchecker_20210616_v1.1.0" sheetId="1" r:id="rId1"/>
     <sheet name="flawfinder_20210616_v1.1.0" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cppchecker_20210616_v1.1.0'!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cppchecker_20210616_v1.1.0'!$E$1:$E$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flawfinder_20210616_v1.1.0!$D$4:$E$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="131">
   <si>
     <t>File</t>
   </si>
@@ -380,6 +381,72 @@
   </si>
   <si>
     <t>check strlen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to fix</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed </t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t># of vulnerabilities</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed </t>
+  </si>
+  <si>
+    <t>Stats from Flawfinder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flawfinder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stats from Cppcheck </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cppcheck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.5.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,8 +614,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,8 +807,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -841,6 +932,58 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,9 +1116,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1059,7 +1223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cppchecker_20210616_v1.1.0'!$F$108</c:f>
+              <c:f>'cppchecker_20210616_v1.1.0'!$H$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1426,7 +1590,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'cppchecker_20210616_v1.1.0'!$E$109:$E$123</c:f>
+              <c:f>'cppchecker_20210616_v1.1.0'!$G$109:$G$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1435,7 +1599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cppchecker_20210616_v1.1.0'!$F$109:$F$123</c:f>
+              <c:f>'cppchecker_20210616_v1.1.0'!$H$109:$H$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1542,7 +1706,964 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cppchecker_20210616_v1.1.0'!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cppchecker_20210616_v1.1.0'!$F$40:$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>knownConditionTrueFalse</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>noCopyConstructor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>noOperatorEq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>unusedFunction</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>useInitializationList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cppchecker_20210616_v1.1.0'!$G$40:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> of Vulerabilities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cppcheck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v0.0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v0.5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v1.1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flawfinder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v0.0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v0.5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v1.1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1215350864"/>
+        <c:axId val="-1215363376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1215350864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1215363376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1215363376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1215350864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2113,6 +3234,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2123,7 +4278,7 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2131,6 +4286,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2381249</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2411,617 +4631,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.25" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>203</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>137</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>184</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>209</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>179</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>159</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>174</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>121</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>164</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>57</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
-      <c r="B34">
+      <c r="D34">
         <v>385</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="B35">
+      <c r="D35">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <f>COUNTIF(F2:F35,F40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G44" si="0">COUNTIF(F3:F36,F41)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1"/>
+  <autoFilter ref="E1:E35">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="style"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3033,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3852,4 +6139,277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="18.75" customWidth="1"/>
+    <col min="8" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="5">
+        <v>154</v>
+      </c>
+      <c r="D3" s="5">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="5">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6</v>
+      </c>
+      <c r="L4" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="6">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="5">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="7">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="5">
+        <v>110</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="7">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:B37">
+    <sortCondition ref="B4:B37"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>